--- a/reports/examples/xlsx_report.xlsx
+++ b/reports/examples/xlsx_report.xlsx
@@ -455,10 +455,10 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,22 +484,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Days Until Expiry</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Issuer</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Serial Number</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Days Until Expiry</t>
         </is>
       </c>
     </row>
@@ -522,23 +522,23 @@
           <t>2024-10-22 12:32:52</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>CN: *.google.com</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>C: US, O: Google Trust Services, CN: WR2</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>150939920476519325899932999567496020356</t>
         </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -560,23 +560,23 @@
           <t>2025-01-09 20:59:59</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>C: RU, ST: Moscow, L: Moscow, O: YANDEX LLC, CN: *.xn--d1acpjx3f.xn--p1ai</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>C: BE, O: GlobalSign nv-sa, CN: GlobalSign ECC OV SSL CA 2018</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>37391386345674715575749168679</t>
         </is>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -598,23 +598,23 @@
           <t>2025-04-05 08:32:15</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="n">
+        <v>221</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>C: RU, ST: Moscow, L: Moscow, O: LLC AT GROUP, CN: *.angarasecurity.ru</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>C: BE, O: GlobalSign nv-sa, CN: GlobalSign RSA OV SSL CA 2018</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>34702219689611151725034737198</t>
         </is>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
